--- a/Code/Results/Cases/Case_5_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005187262453262</v>
+        <v>1.029571681496128</v>
       </c>
       <c r="D2">
-        <v>1.021705051660376</v>
+        <v>1.033743402636385</v>
       </c>
       <c r="E2">
-        <v>1.010922129615696</v>
+        <v>1.029389652301257</v>
       </c>
       <c r="F2">
-        <v>1.011493411458279</v>
+        <v>1.040266992574698</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0462937015439</v>
+        <v>1.037072132337225</v>
       </c>
       <c r="J2">
-        <v>1.027213922654899</v>
+        <v>1.034717717581279</v>
       </c>
       <c r="K2">
-        <v>1.032870060788145</v>
+        <v>1.036544873570637</v>
       </c>
       <c r="L2">
-        <v>1.022231370390242</v>
+        <v>1.032203704129455</v>
       </c>
       <c r="M2">
-        <v>1.022794913781312</v>
+        <v>1.043049826529365</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009337332290448</v>
+        <v>1.030437294224545</v>
       </c>
       <c r="D3">
-        <v>1.02471666982516</v>
+        <v>1.034386866247325</v>
       </c>
       <c r="E3">
-        <v>1.014212742588792</v>
+        <v>1.030122665514712</v>
       </c>
       <c r="F3">
-        <v>1.016551507158387</v>
+        <v>1.041397131050844</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047749586544197</v>
+        <v>1.037314751064253</v>
       </c>
       <c r="J3">
-        <v>1.029576648723707</v>
+        <v>1.035224847584768</v>
       </c>
       <c r="K3">
-        <v>1.035042769877455</v>
+        <v>1.036997822719944</v>
       </c>
       <c r="L3">
-        <v>1.024666942011502</v>
+        <v>1.03274505486513</v>
       </c>
       <c r="M3">
-        <v>1.026976899495969</v>
+        <v>1.043989511971094</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011969092953289</v>
+        <v>1.03099776195439</v>
       </c>
       <c r="D4">
-        <v>1.026628714251478</v>
+        <v>1.034803464705816</v>
       </c>
       <c r="E4">
-        <v>1.016305193816506</v>
+        <v>1.0305976660809</v>
       </c>
       <c r="F4">
-        <v>1.019760132317561</v>
+        <v>1.042129094127923</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048662434163303</v>
+        <v>1.037470576502974</v>
       </c>
       <c r="J4">
-        <v>1.03107150563873</v>
+        <v>1.035552712979833</v>
       </c>
       <c r="K4">
-        <v>1.036416035487496</v>
+        <v>1.03729045908961</v>
       </c>
       <c r="L4">
-        <v>1.026210733246262</v>
+        <v>1.033095369938603</v>
       </c>
       <c r="M4">
-        <v>1.029625779036169</v>
+        <v>1.044597657153159</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013063079903736</v>
+        <v>1.031233467242056</v>
       </c>
       <c r="D5">
-        <v>1.027424017394316</v>
+        <v>1.034978657436549</v>
       </c>
       <c r="E5">
-        <v>1.01717633146807</v>
+        <v>1.030797520547336</v>
       </c>
       <c r="F5">
-        <v>1.02109421830679</v>
+        <v>1.042436975643458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049039365117123</v>
+        <v>1.037535806001302</v>
       </c>
       <c r="J5">
-        <v>1.031692041253462</v>
+        <v>1.035690479237876</v>
       </c>
       <c r="K5">
-        <v>1.036985758818944</v>
+        <v>1.037413374259371</v>
       </c>
       <c r="L5">
-        <v>1.02685226428116</v>
+        <v>1.033242647318055</v>
       </c>
       <c r="M5">
-        <v>1.030726160477583</v>
+        <v>1.04485334620753</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013246049783934</v>
+        <v>1.031273048127765</v>
       </c>
       <c r="D6">
-        <v>1.027557059973501</v>
+        <v>1.035008076236229</v>
       </c>
       <c r="E6">
-        <v>1.017322107079614</v>
+        <v>1.030831086580238</v>
       </c>
       <c r="F6">
-        <v>1.021317364303814</v>
+        <v>1.042488679922713</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049102257520261</v>
+        <v>1.037546741913053</v>
       </c>
       <c r="J6">
-        <v>1.031795775110233</v>
+        <v>1.035713606763405</v>
       </c>
       <c r="K6">
-        <v>1.037080978332977</v>
+        <v>1.037434005828518</v>
       </c>
       <c r="L6">
-        <v>1.026959547994784</v>
+        <v>1.033267376096236</v>
       </c>
       <c r="M6">
-        <v>1.030910158180254</v>
+        <v>1.044896278965147</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011983759050238</v>
+        <v>1.031000911128781</v>
       </c>
       <c r="D7">
-        <v>1.026639374274628</v>
+        <v>1.034805805426328</v>
       </c>
       <c r="E7">
-        <v>1.016316867150901</v>
+        <v>1.030600335902565</v>
       </c>
       <c r="F7">
-        <v>1.019778015933652</v>
+        <v>1.04213320741101</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048667497361775</v>
+        <v>1.037471449201763</v>
       </c>
       <c r="J7">
-        <v>1.03107982801446</v>
+        <v>1.035554554089068</v>
       </c>
       <c r="K7">
-        <v>1.036423677737356</v>
+        <v>1.037292101918235</v>
       </c>
       <c r="L7">
-        <v>1.026219334509048</v>
+        <v>1.033097337848132</v>
       </c>
       <c r="M7">
-        <v>1.029640533673952</v>
+        <v>1.044601073585941</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006601164072371</v>
+        <v>1.029864144466255</v>
       </c>
       <c r="D8">
-        <v>1.022730595862504</v>
+        <v>1.033960814788719</v>
       </c>
       <c r="E8">
-        <v>1.012041999219536</v>
+        <v>1.029637233400901</v>
       </c>
       <c r="F8">
-        <v>1.013216487396591</v>
+        <v>1.040648785454986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046791872494967</v>
+        <v>1.037154367359588</v>
       </c>
       <c r="J8">
-        <v>1.028019598228019</v>
+        <v>1.03488916229305</v>
       </c>
       <c r="K8">
-        <v>1.033611223887319</v>
+        <v>1.036698042880887</v>
       </c>
       <c r="L8">
-        <v>1.023061287649215</v>
+        <v>1.032386650348237</v>
       </c>
       <c r="M8">
-        <v>1.024220360219423</v>
+        <v>1.043367375386739</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9966853382161598</v>
+        <v>1.027863812154422</v>
       </c>
       <c r="D9">
-        <v>1.015549649443267</v>
+        <v>1.032473690618435</v>
       </c>
       <c r="E9">
-        <v>1.004214060703342</v>
+        <v>1.027945487087538</v>
       </c>
       <c r="F9">
-        <v>1.001134428198468</v>
+        <v>1.038038332583194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043255373428947</v>
+        <v>1.036586731325236</v>
       </c>
       <c r="J9">
-        <v>1.022355691166889</v>
+        <v>1.033714541074001</v>
       </c>
       <c r="K9">
-        <v>1.028395383317868</v>
+        <v>1.035647814744175</v>
       </c>
       <c r="L9">
-        <v>1.017239135715933</v>
+        <v>1.031134565551133</v>
       </c>
       <c r="M9">
-        <v>1.014209126870947</v>
+        <v>1.041194275363845</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9897546887316417</v>
+        <v>1.026532204416528</v>
       </c>
       <c r="D10">
-        <v>1.010546994193723</v>
+        <v>1.031483605670783</v>
       </c>
       <c r="E10">
-        <v>0.9987773873164721</v>
+        <v>1.026821347276189</v>
       </c>
       <c r="F10">
-        <v>0.9926894438163018</v>
+        <v>1.036301610413001</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04073063435918</v>
+        <v>1.036202359795733</v>
       </c>
       <c r="J10">
-        <v>1.018380775196181</v>
+        <v>1.032930092430662</v>
       </c>
       <c r="K10">
-        <v>1.024728395237444</v>
+        <v>1.034945418780788</v>
       </c>
       <c r="L10">
-        <v>1.013168751556097</v>
+        <v>1.030300063861964</v>
       </c>
       <c r="M10">
-        <v>1.007191959152786</v>
+        <v>1.039746131714944</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9866703915182518</v>
+        <v>1.025956079271038</v>
       </c>
       <c r="D11">
-        <v>1.008325314335282</v>
+        <v>1.031055220925229</v>
       </c>
       <c r="E11">
-        <v>0.9963667979583867</v>
+        <v>1.026335475590907</v>
       </c>
       <c r="F11">
-        <v>0.9889301881972742</v>
+        <v>1.035550443944746</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039594985245814</v>
+        <v>1.0360345191285</v>
       </c>
       <c r="J11">
-        <v>1.016608407401924</v>
+        <v>1.03259010441664</v>
       </c>
       <c r="K11">
-        <v>1.023091916902813</v>
+        <v>1.034640752919968</v>
       </c>
       <c r="L11">
-        <v>1.011357557948552</v>
+        <v>1.029938780843875</v>
       </c>
       <c r="M11">
-        <v>1.004063928578702</v>
+        <v>1.039119214879683</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9855115609657552</v>
+        <v>1.025742152395904</v>
       </c>
       <c r="D12">
-        <v>1.007491342758038</v>
+        <v>1.030896150493731</v>
       </c>
       <c r="E12">
-        <v>0.995462479658504</v>
+        <v>1.026155136088922</v>
       </c>
       <c r="F12">
-        <v>0.9875175147323675</v>
+        <v>1.035271554585177</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039166525339628</v>
+        <v>1.035971965045819</v>
       </c>
       <c r="J12">
-        <v>1.015942011656821</v>
+        <v>1.032463771052387</v>
       </c>
       <c r="K12">
-        <v>1.022476414163473</v>
+        <v>1.034527508666612</v>
       </c>
       <c r="L12">
-        <v>1.0106771307872</v>
+        <v>1.029804594534633</v>
       </c>
       <c r="M12">
-        <v>1.002887831499548</v>
+        <v>1.038886371283172</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9857607420365843</v>
+        <v>1.02578803717695</v>
       </c>
       <c r="D13">
-        <v>1.007670634796054</v>
+        <v>1.030930269323305</v>
       </c>
       <c r="E13">
-        <v>0.995656869843197</v>
+        <v>1.026193813398064</v>
       </c>
       <c r="F13">
-        <v>0.9878212918814001</v>
+        <v>1.035331371534178</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039258735739195</v>
+        <v>1.035985392629689</v>
       </c>
       <c r="J13">
-        <v>1.016085326679257</v>
+        <v>1.032490872085949</v>
       </c>
       <c r="K13">
-        <v>1.022608792996207</v>
+        <v>1.034551803448914</v>
       </c>
       <c r="L13">
-        <v>1.01082343772032</v>
+        <v>1.029833377471517</v>
       </c>
       <c r="M13">
-        <v>1.003140763921731</v>
+        <v>1.038936316058543</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9865748752558021</v>
+        <v>1.02593839454082</v>
       </c>
       <c r="D14">
-        <v>1.008256558718046</v>
+        <v>1.031042071070794</v>
       </c>
       <c r="E14">
-        <v>0.9962922312598602</v>
+        <v>1.026320565911781</v>
       </c>
       <c r="F14">
-        <v>0.988813754595298</v>
+        <v>1.035527388264642</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039559705394567</v>
+        <v>1.036029352681278</v>
       </c>
       <c r="J14">
-        <v>1.01655348954144</v>
+        <v>1.032579662608444</v>
       </c>
       <c r="K14">
-        <v>1.023041197150901</v>
+        <v>1.034631393696274</v>
       </c>
       <c r="L14">
-        <v>1.011301472208617</v>
+        <v>1.029927688745907</v>
       </c>
       <c r="M14">
-        <v>1.003967006400271</v>
+        <v>1.039099967520192</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9870747215057936</v>
+        <v>1.026031044202417</v>
       </c>
       <c r="D15">
-        <v>1.008616395044167</v>
+        <v>1.031110962581483</v>
       </c>
       <c r="E15">
-        <v>0.9966825032149502</v>
+        <v>1.026398680233652</v>
       </c>
       <c r="F15">
-        <v>0.9894230527325711</v>
+        <v>1.035648177519571</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039744256332539</v>
+        <v>1.036056410031402</v>
       </c>
       <c r="J15">
-        <v>1.016840860784095</v>
+        <v>1.032634363220978</v>
       </c>
       <c r="K15">
-        <v>1.023306592663089</v>
+        <v>1.034680421593919</v>
       </c>
       <c r="L15">
-        <v>1.011594977794784</v>
+        <v>1.029985798428628</v>
       </c>
       <c r="M15">
-        <v>1.004474175606548</v>
+        <v>1.039200801410827</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9899575723332074</v>
+        <v>1.026570449934688</v>
       </c>
       <c r="D16">
-        <v>1.010693236718312</v>
+        <v>1.031512043195344</v>
       </c>
       <c r="E16">
-        <v>0.9989361439952806</v>
+        <v>1.026853611816103</v>
       </c>
       <c r="F16">
-        <v>0.9929366965583691</v>
+        <v>1.036351480697129</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04080508844268</v>
+        <v>1.036213469266792</v>
       </c>
       <c r="J16">
-        <v>1.018497291882536</v>
+        <v>1.032952649721009</v>
       </c>
       <c r="K16">
-        <v>1.02483595004224</v>
+        <v>1.034965627492416</v>
       </c>
       <c r="L16">
-        <v>1.013287898981002</v>
+        <v>1.030324042413225</v>
       </c>
       <c r="M16">
-        <v>1.007397606444547</v>
+        <v>1.039787741077968</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9917431509584921</v>
+        <v>1.026908931434446</v>
       </c>
       <c r="D17">
-        <v>1.011980850272007</v>
+        <v>1.031763719405702</v>
       </c>
       <c r="E17">
-        <v>1.000334376438107</v>
+        <v>1.027139217199128</v>
       </c>
       <c r="F17">
-        <v>0.9951126386789901</v>
+        <v>1.036792870794718</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041458987927357</v>
+        <v>1.036311612527778</v>
       </c>
       <c r="J17">
-        <v>1.019522367687108</v>
+        <v>1.033152218301413</v>
       </c>
       <c r="K17">
-        <v>1.025782022931002</v>
+        <v>1.035144390026565</v>
       </c>
       <c r="L17">
-        <v>1.014336545363296</v>
+        <v>1.030536231171008</v>
       </c>
       <c r="M17">
-        <v>1.009206907161608</v>
+        <v>1.040155950269001</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9927766612770232</v>
+        <v>1.027106407222542</v>
       </c>
       <c r="D18">
-        <v>1.012726567393627</v>
+        <v>1.031910549491552</v>
       </c>
       <c r="E18">
-        <v>1.001144523600259</v>
+        <v>1.027305891597007</v>
       </c>
       <c r="F18">
-        <v>0.9963720023437613</v>
+        <v>1.037050407750399</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041836321682571</v>
+        <v>1.036368722208207</v>
       </c>
       <c r="J18">
-        <v>1.020115362779849</v>
+        <v>1.033268592673773</v>
       </c>
       <c r="K18">
-        <v>1.026329181039855</v>
+        <v>1.035248608591191</v>
       </c>
       <c r="L18">
-        <v>1.01494353027787</v>
+        <v>1.030660003170429</v>
       </c>
       <c r="M18">
-        <v>1.010253654994829</v>
+        <v>1.040370733840089</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9931277264691001</v>
+        <v>1.027173749006574</v>
       </c>
       <c r="D19">
-        <v>1.012979946068327</v>
+        <v>1.031960620076255</v>
       </c>
       <c r="E19">
-        <v>1.001419856532604</v>
+        <v>1.027362737737058</v>
       </c>
       <c r="F19">
-        <v>0.9967997727816994</v>
+        <v>1.037138235026507</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041964299083063</v>
+        <v>1.03638817211297</v>
       </c>
       <c r="J19">
-        <v>1.020316735966148</v>
+        <v>1.033308268109476</v>
       </c>
       <c r="K19">
-        <v>1.026514965411922</v>
+        <v>1.035284135818828</v>
       </c>
       <c r="L19">
-        <v>1.015149714227009</v>
+        <v>1.030702207191249</v>
       </c>
       <c r="M19">
-        <v>1.010609134501868</v>
+        <v>1.040443971745906</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9915524061728632</v>
+        <v>1.026872610884052</v>
       </c>
       <c r="D20">
-        <v>1.011843255252493</v>
+        <v>1.031736713650632</v>
       </c>
       <c r="E20">
-        <v>1.000184922798557</v>
+        <v>1.027108565579138</v>
       </c>
       <c r="F20">
-        <v>0.9948802034955302</v>
+        <v>1.036745505374429</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04138925396649</v>
+        <v>1.03630109670894</v>
       </c>
       <c r="J20">
-        <v>1.019412897632918</v>
+        <v>1.033130809640562</v>
       </c>
       <c r="K20">
-        <v>1.025681003659031</v>
+        <v>1.035125215725397</v>
       </c>
       <c r="L20">
-        <v>1.014224521341114</v>
+        <v>1.030513464709156</v>
       </c>
       <c r="M20">
-        <v>1.009013679747629</v>
+        <v>1.040116443520927</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9863355029330537</v>
+        <v>1.025894116058021</v>
       </c>
       <c r="D21">
-        <v>1.008084263385647</v>
+        <v>1.031009146831148</v>
       </c>
       <c r="E21">
-        <v>0.996105382967449</v>
+        <v>1.02628323672108</v>
       </c>
       <c r="F21">
-        <v>0.9885219572281866</v>
+        <v>1.03546966270657</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039471262478383</v>
+        <v>1.036016413350627</v>
       </c>
       <c r="J21">
-        <v>1.016415852799216</v>
+        <v>1.032553517294054</v>
       </c>
       <c r="K21">
-        <v>1.022914078645016</v>
+        <v>1.034607958492219</v>
       </c>
       <c r="L21">
-        <v>1.011160917638348</v>
+        <v>1.029899916134033</v>
       </c>
       <c r="M21">
-        <v>1.003724097098694</v>
+        <v>1.039051775654698</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.982978775000823</v>
+        <v>1.025279312637349</v>
       </c>
       <c r="D22">
-        <v>1.005670045159677</v>
+        <v>1.030551990919885</v>
       </c>
       <c r="E22">
-        <v>0.9934885810369942</v>
+        <v>1.025765100760674</v>
       </c>
       <c r="F22">
-        <v>0.984429357517001</v>
+        <v>1.034668226505263</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038226850229222</v>
+        <v>1.035836203507542</v>
       </c>
       <c r="J22">
-        <v>1.014484661989965</v>
+        <v>1.032190281056923</v>
       </c>
       <c r="K22">
-        <v>1.021130008014119</v>
+        <v>1.034282288732934</v>
       </c>
       <c r="L22">
-        <v>1.009190143507755</v>
+        <v>1.029514213829634</v>
       </c>
       <c r="M22">
-        <v>1.000315713853747</v>
+        <v>1.03838249971959</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9847657430887788</v>
+        <v>1.025605191855622</v>
       </c>
       <c r="D23">
-        <v>1.006954823989433</v>
+        <v>1.030794309571312</v>
       </c>
       <c r="E23">
-        <v>0.9948808628444973</v>
+        <v>1.026039699927797</v>
       </c>
       <c r="F23">
-        <v>0.9866082429470513</v>
+        <v>1.035093013079233</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038890275800978</v>
+        <v>1.035931851438255</v>
       </c>
       <c r="J23">
-        <v>1.01551299086681</v>
+        <v>1.032382864721181</v>
       </c>
       <c r="K23">
-        <v>1.022080102983976</v>
+        <v>1.034454974750133</v>
       </c>
       <c r="L23">
-        <v>1.010239236998858</v>
+        <v>1.029718675888796</v>
       </c>
       <c r="M23">
-        <v>1.002130659159433</v>
+        <v>1.038737283775146</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9916386201656994</v>
+        <v>1.026889022437627</v>
       </c>
       <c r="D24">
-        <v>1.011905444949258</v>
+        <v>1.031748916291379</v>
       </c>
       <c r="E24">
-        <v>1.000252471177663</v>
+        <v>1.027122415462465</v>
       </c>
       <c r="F24">
-        <v>0.9949852612499746</v>
+        <v>1.036766907516878</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041420776315252</v>
+        <v>1.036305848773918</v>
       </c>
       <c r="J24">
-        <v>1.019462377598298</v>
+        <v>1.033140483387516</v>
       </c>
       <c r="K24">
-        <v>1.025726664327875</v>
+        <v>1.035133879923169</v>
       </c>
       <c r="L24">
-        <v>1.014275154589388</v>
+        <v>1.030523751875208</v>
       </c>
       <c r="M24">
-        <v>1.009101017378958</v>
+        <v>1.040134294878429</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9993028963856923</v>
+        <v>1.028380607751556</v>
       </c>
       <c r="D25">
-        <v>1.017442648646587</v>
+        <v>1.032857919259744</v>
       </c>
       <c r="E25">
-        <v>1.006274688600246</v>
+        <v>1.028382199703994</v>
       </c>
       <c r="F25">
-        <v>1.004323561596606</v>
+        <v>1.038712568059988</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044198203374912</v>
+        <v>1.036734529668756</v>
       </c>
       <c r="J25">
-        <v>1.023853743644404</v>
+        <v>1.034018453912146</v>
       </c>
       <c r="K25">
-        <v>1.029776092488157</v>
+        <v>1.035919723463689</v>
       </c>
       <c r="L25">
-        <v>1.018776372802582</v>
+        <v>1.03145822496993</v>
       </c>
       <c r="M25">
-        <v>1.016855128569966</v>
+        <v>1.041755972015163</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029571681496128</v>
+        <v>1.005187262453262</v>
       </c>
       <c r="D2">
-        <v>1.033743402636385</v>
+        <v>1.021705051660376</v>
       </c>
       <c r="E2">
-        <v>1.029389652301257</v>
+        <v>1.010922129615696</v>
       </c>
       <c r="F2">
-        <v>1.040266992574698</v>
+        <v>1.011493411458279</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037072132337225</v>
+        <v>1.0462937015439</v>
       </c>
       <c r="J2">
-        <v>1.034717717581279</v>
+        <v>1.027213922654899</v>
       </c>
       <c r="K2">
-        <v>1.036544873570637</v>
+        <v>1.032870060788145</v>
       </c>
       <c r="L2">
-        <v>1.032203704129455</v>
+        <v>1.022231370390242</v>
       </c>
       <c r="M2">
-        <v>1.043049826529365</v>
+        <v>1.022794913781312</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030437294224545</v>
+        <v>1.009337332290447</v>
       </c>
       <c r="D3">
-        <v>1.034386866247325</v>
+        <v>1.02471666982516</v>
       </c>
       <c r="E3">
-        <v>1.030122665514712</v>
+        <v>1.014212742588792</v>
       </c>
       <c r="F3">
-        <v>1.041397131050844</v>
+        <v>1.016551507158387</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037314751064253</v>
+        <v>1.047749586544197</v>
       </c>
       <c r="J3">
-        <v>1.035224847584768</v>
+        <v>1.029576648723706</v>
       </c>
       <c r="K3">
-        <v>1.036997822719944</v>
+        <v>1.035042769877455</v>
       </c>
       <c r="L3">
-        <v>1.03274505486513</v>
+        <v>1.024666942011501</v>
       </c>
       <c r="M3">
-        <v>1.043989511971094</v>
+        <v>1.026976899495969</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03099776195439</v>
+        <v>1.011969092953288</v>
       </c>
       <c r="D4">
-        <v>1.034803464705816</v>
+        <v>1.026628714251477</v>
       </c>
       <c r="E4">
-        <v>1.0305976660809</v>
+        <v>1.016305193816506</v>
       </c>
       <c r="F4">
-        <v>1.042129094127923</v>
+        <v>1.01976013231756</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037470576502974</v>
+        <v>1.048662434163302</v>
       </c>
       <c r="J4">
-        <v>1.035552712979833</v>
+        <v>1.031071505638729</v>
       </c>
       <c r="K4">
-        <v>1.03729045908961</v>
+        <v>1.036416035487495</v>
       </c>
       <c r="L4">
-        <v>1.033095369938603</v>
+        <v>1.026210733246262</v>
       </c>
       <c r="M4">
-        <v>1.044597657153159</v>
+        <v>1.029625779036168</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031233467242056</v>
+        <v>1.013063079903735</v>
       </c>
       <c r="D5">
-        <v>1.034978657436549</v>
+        <v>1.027424017394316</v>
       </c>
       <c r="E5">
-        <v>1.030797520547336</v>
+        <v>1.01717633146807</v>
       </c>
       <c r="F5">
-        <v>1.042436975643458</v>
+        <v>1.021094218306789</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037535806001302</v>
+        <v>1.049039365117123</v>
       </c>
       <c r="J5">
-        <v>1.035690479237876</v>
+        <v>1.031692041253462</v>
       </c>
       <c r="K5">
-        <v>1.037413374259371</v>
+        <v>1.036985758818944</v>
       </c>
       <c r="L5">
-        <v>1.033242647318055</v>
+        <v>1.026852264281159</v>
       </c>
       <c r="M5">
-        <v>1.04485334620753</v>
+        <v>1.030726160477583</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031273048127765</v>
+        <v>1.013246049783934</v>
       </c>
       <c r="D6">
-        <v>1.035008076236229</v>
+        <v>1.027557059973501</v>
       </c>
       <c r="E6">
-        <v>1.030831086580238</v>
+        <v>1.017322107079613</v>
       </c>
       <c r="F6">
-        <v>1.042488679922713</v>
+        <v>1.021317364303814</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037546741913053</v>
+        <v>1.049102257520261</v>
       </c>
       <c r="J6">
-        <v>1.035713606763405</v>
+        <v>1.031795775110232</v>
       </c>
       <c r="K6">
-        <v>1.037434005828518</v>
+        <v>1.037080978332977</v>
       </c>
       <c r="L6">
-        <v>1.033267376096236</v>
+        <v>1.026959547994784</v>
       </c>
       <c r="M6">
-        <v>1.044896278965147</v>
+        <v>1.030910158180253</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031000911128781</v>
+        <v>1.011983759050239</v>
       </c>
       <c r="D7">
-        <v>1.034805805426328</v>
+        <v>1.026639374274628</v>
       </c>
       <c r="E7">
-        <v>1.030600335902565</v>
+        <v>1.016316867150901</v>
       </c>
       <c r="F7">
-        <v>1.04213320741101</v>
+        <v>1.019778015933652</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037471449201763</v>
+        <v>1.048667497361775</v>
       </c>
       <c r="J7">
-        <v>1.035554554089068</v>
+        <v>1.03107982801446</v>
       </c>
       <c r="K7">
-        <v>1.037292101918235</v>
+        <v>1.036423677737357</v>
       </c>
       <c r="L7">
-        <v>1.033097337848132</v>
+        <v>1.026219334509049</v>
       </c>
       <c r="M7">
-        <v>1.044601073585941</v>
+        <v>1.029640533673953</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029864144466255</v>
+        <v>1.00660116407237</v>
       </c>
       <c r="D8">
-        <v>1.033960814788719</v>
+        <v>1.022730595862504</v>
       </c>
       <c r="E8">
-        <v>1.029637233400901</v>
+        <v>1.012041999219536</v>
       </c>
       <c r="F8">
-        <v>1.040648785454986</v>
+        <v>1.01321648739659</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037154367359588</v>
+        <v>1.046791872494966</v>
       </c>
       <c r="J8">
-        <v>1.03488916229305</v>
+        <v>1.028019598228019</v>
       </c>
       <c r="K8">
-        <v>1.036698042880887</v>
+        <v>1.033611223887319</v>
       </c>
       <c r="L8">
-        <v>1.032386650348237</v>
+        <v>1.023061287649215</v>
       </c>
       <c r="M8">
-        <v>1.043367375386739</v>
+        <v>1.024220360219422</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027863812154422</v>
+        <v>0.9966853382161597</v>
       </c>
       <c r="D9">
-        <v>1.032473690618435</v>
+        <v>1.015549649443267</v>
       </c>
       <c r="E9">
-        <v>1.027945487087538</v>
+        <v>1.004214060703342</v>
       </c>
       <c r="F9">
-        <v>1.038038332583194</v>
+        <v>1.001134428198468</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036586731325236</v>
+        <v>1.043255373428947</v>
       </c>
       <c r="J9">
-        <v>1.033714541074001</v>
+        <v>1.022355691166889</v>
       </c>
       <c r="K9">
-        <v>1.035647814744175</v>
+        <v>1.028395383317868</v>
       </c>
       <c r="L9">
-        <v>1.031134565551133</v>
+        <v>1.017239135715933</v>
       </c>
       <c r="M9">
-        <v>1.041194275363845</v>
+        <v>1.014209126870946</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026532204416528</v>
+        <v>0.989754688731643</v>
       </c>
       <c r="D10">
-        <v>1.031483605670783</v>
+        <v>1.010546994193724</v>
       </c>
       <c r="E10">
-        <v>1.026821347276189</v>
+        <v>0.9987773873164734</v>
       </c>
       <c r="F10">
-        <v>1.036301610413001</v>
+        <v>0.992689443816303</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036202359795733</v>
+        <v>1.04073063435918</v>
       </c>
       <c r="J10">
-        <v>1.032930092430662</v>
+        <v>1.018380775196182</v>
       </c>
       <c r="K10">
-        <v>1.034945418780788</v>
+        <v>1.024728395237444</v>
       </c>
       <c r="L10">
-        <v>1.030300063861964</v>
+        <v>1.013168751556098</v>
       </c>
       <c r="M10">
-        <v>1.039746131714944</v>
+        <v>1.007191959152788</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025956079271038</v>
+        <v>0.986670391518251</v>
       </c>
       <c r="D11">
-        <v>1.031055220925229</v>
+        <v>1.008325314335281</v>
       </c>
       <c r="E11">
-        <v>1.026335475590907</v>
+        <v>0.9963667979583862</v>
       </c>
       <c r="F11">
-        <v>1.035550443944746</v>
+        <v>0.9889301881972736</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0360345191285</v>
+        <v>1.039594985245813</v>
       </c>
       <c r="J11">
-        <v>1.03259010441664</v>
+        <v>1.016608407401923</v>
       </c>
       <c r="K11">
-        <v>1.034640752919968</v>
+        <v>1.023091916902812</v>
       </c>
       <c r="L11">
-        <v>1.029938780843875</v>
+        <v>1.011357557948551</v>
       </c>
       <c r="M11">
-        <v>1.039119214879683</v>
+        <v>1.004063928578701</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025742152395904</v>
+        <v>0.9855115609657559</v>
       </c>
       <c r="D12">
-        <v>1.030896150493731</v>
+        <v>1.007491342758038</v>
       </c>
       <c r="E12">
-        <v>1.026155136088922</v>
+        <v>0.9954624796585043</v>
       </c>
       <c r="F12">
-        <v>1.035271554585177</v>
+        <v>0.9875175147323684</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035971965045819</v>
+        <v>1.039166525339629</v>
       </c>
       <c r="J12">
-        <v>1.032463771052387</v>
+        <v>1.015942011656822</v>
       </c>
       <c r="K12">
-        <v>1.034527508666612</v>
+        <v>1.022476414163474</v>
       </c>
       <c r="L12">
-        <v>1.029804594534633</v>
+        <v>1.0106771307872</v>
       </c>
       <c r="M12">
-        <v>1.038886371283172</v>
+        <v>1.002887831499548</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02578803717695</v>
+        <v>0.985760742036584</v>
       </c>
       <c r="D13">
-        <v>1.030930269323305</v>
+        <v>1.007670634796054</v>
       </c>
       <c r="E13">
-        <v>1.026193813398064</v>
+        <v>0.9956568698431968</v>
       </c>
       <c r="F13">
-        <v>1.035331371534178</v>
+        <v>0.9878212918813993</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035985392629689</v>
+        <v>1.039258735739195</v>
       </c>
       <c r="J13">
-        <v>1.032490872085949</v>
+        <v>1.016085326679257</v>
       </c>
       <c r="K13">
-        <v>1.034551803448914</v>
+        <v>1.022608792996207</v>
       </c>
       <c r="L13">
-        <v>1.029833377471517</v>
+        <v>1.010823437720319</v>
       </c>
       <c r="M13">
-        <v>1.038936316058543</v>
+        <v>1.00314076392173</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02593839454082</v>
+        <v>0.9865748752558018</v>
       </c>
       <c r="D14">
-        <v>1.031042071070794</v>
+        <v>1.008256558718046</v>
       </c>
       <c r="E14">
-        <v>1.026320565911781</v>
+        <v>0.9962922312598598</v>
       </c>
       <c r="F14">
-        <v>1.035527388264642</v>
+        <v>0.988813754595298</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036029352681278</v>
+        <v>1.039559705394566</v>
       </c>
       <c r="J14">
-        <v>1.032579662608444</v>
+        <v>1.016553489541439</v>
       </c>
       <c r="K14">
-        <v>1.034631393696274</v>
+        <v>1.023041197150901</v>
       </c>
       <c r="L14">
-        <v>1.029927688745907</v>
+        <v>1.011301472208617</v>
       </c>
       <c r="M14">
-        <v>1.039099967520192</v>
+        <v>1.00396700640027</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026031044202417</v>
+        <v>0.9870747215057938</v>
       </c>
       <c r="D15">
-        <v>1.031110962581483</v>
+        <v>1.008616395044167</v>
       </c>
       <c r="E15">
-        <v>1.026398680233652</v>
+        <v>0.9966825032149506</v>
       </c>
       <c r="F15">
-        <v>1.035648177519571</v>
+        <v>0.9894230527325714</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036056410031402</v>
+        <v>1.039744256332538</v>
       </c>
       <c r="J15">
-        <v>1.032634363220978</v>
+        <v>1.016840860784095</v>
       </c>
       <c r="K15">
-        <v>1.034680421593919</v>
+        <v>1.023306592663089</v>
       </c>
       <c r="L15">
-        <v>1.029985798428628</v>
+        <v>1.011594977794784</v>
       </c>
       <c r="M15">
-        <v>1.039200801410827</v>
+        <v>1.004474175606549</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026570449934688</v>
+        <v>0.9899575723332076</v>
       </c>
       <c r="D16">
-        <v>1.031512043195344</v>
+        <v>1.010693236718313</v>
       </c>
       <c r="E16">
-        <v>1.026853611816103</v>
+        <v>0.9989361439952809</v>
       </c>
       <c r="F16">
-        <v>1.036351480697129</v>
+        <v>0.9929366965583696</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036213469266792</v>
+        <v>1.04080508844268</v>
       </c>
       <c r="J16">
-        <v>1.032952649721009</v>
+        <v>1.018497291882537</v>
       </c>
       <c r="K16">
-        <v>1.034965627492416</v>
+        <v>1.02483595004224</v>
       </c>
       <c r="L16">
-        <v>1.030324042413225</v>
+        <v>1.013287898981002</v>
       </c>
       <c r="M16">
-        <v>1.039787741077968</v>
+        <v>1.007397606444547</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026908931434446</v>
+        <v>0.9917431509584921</v>
       </c>
       <c r="D17">
-        <v>1.031763719405702</v>
+        <v>1.011980850272007</v>
       </c>
       <c r="E17">
-        <v>1.027139217199128</v>
+        <v>1.000334376438107</v>
       </c>
       <c r="F17">
-        <v>1.036792870794718</v>
+        <v>0.99511263867899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036311612527778</v>
+        <v>1.041458987927357</v>
       </c>
       <c r="J17">
-        <v>1.033152218301413</v>
+        <v>1.019522367687108</v>
       </c>
       <c r="K17">
-        <v>1.035144390026565</v>
+        <v>1.025782022931002</v>
       </c>
       <c r="L17">
-        <v>1.030536231171008</v>
+        <v>1.014336545363296</v>
       </c>
       <c r="M17">
-        <v>1.040155950269001</v>
+        <v>1.009206907161608</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027106407222542</v>
+        <v>0.9927766612770227</v>
       </c>
       <c r="D18">
-        <v>1.031910549491552</v>
+        <v>1.012726567393627</v>
       </c>
       <c r="E18">
-        <v>1.027305891597007</v>
+        <v>1.001144523600258</v>
       </c>
       <c r="F18">
-        <v>1.037050407750399</v>
+        <v>0.9963720023437609</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036368722208207</v>
+        <v>1.04183632168257</v>
       </c>
       <c r="J18">
-        <v>1.033268592673773</v>
+        <v>1.020115362779848</v>
       </c>
       <c r="K18">
-        <v>1.035248608591191</v>
+        <v>1.026329181039854</v>
       </c>
       <c r="L18">
-        <v>1.030660003170429</v>
+        <v>1.014943530277869</v>
       </c>
       <c r="M18">
-        <v>1.040370733840089</v>
+        <v>1.010253654994828</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027173749006574</v>
+        <v>0.9931277264690994</v>
       </c>
       <c r="D19">
-        <v>1.031960620076255</v>
+        <v>1.012979946068326</v>
       </c>
       <c r="E19">
-        <v>1.027362737737058</v>
+        <v>1.001419856532604</v>
       </c>
       <c r="F19">
-        <v>1.037138235026507</v>
+        <v>0.9967997727816985</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03638817211297</v>
+        <v>1.041964299083063</v>
       </c>
       <c r="J19">
-        <v>1.033308268109476</v>
+        <v>1.020316735966147</v>
       </c>
       <c r="K19">
-        <v>1.035284135818828</v>
+        <v>1.026514965411922</v>
       </c>
       <c r="L19">
-        <v>1.030702207191249</v>
+        <v>1.015149714227008</v>
       </c>
       <c r="M19">
-        <v>1.040443971745906</v>
+        <v>1.010609134501867</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026872610884052</v>
+        <v>0.9915524061728622</v>
       </c>
       <c r="D20">
-        <v>1.031736713650632</v>
+        <v>1.011843255252493</v>
       </c>
       <c r="E20">
-        <v>1.027108565579138</v>
+        <v>1.000184922798556</v>
       </c>
       <c r="F20">
-        <v>1.036745505374429</v>
+        <v>0.9948802034955292</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03630109670894</v>
+        <v>1.04138925396649</v>
       </c>
       <c r="J20">
-        <v>1.033130809640562</v>
+        <v>1.019412897632917</v>
       </c>
       <c r="K20">
-        <v>1.035125215725397</v>
+        <v>1.02568100365903</v>
       </c>
       <c r="L20">
-        <v>1.030513464709156</v>
+        <v>1.014224521341113</v>
       </c>
       <c r="M20">
-        <v>1.040116443520927</v>
+        <v>1.009013679747627</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025894116058021</v>
+        <v>0.9863355029330535</v>
       </c>
       <c r="D21">
-        <v>1.031009146831148</v>
+        <v>1.008084263385647</v>
       </c>
       <c r="E21">
-        <v>1.02628323672108</v>
+        <v>0.9961053829674483</v>
       </c>
       <c r="F21">
-        <v>1.03546966270657</v>
+        <v>0.9885219572281859</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036016413350627</v>
+        <v>1.039471262478383</v>
       </c>
       <c r="J21">
-        <v>1.032553517294054</v>
+        <v>1.016415852799216</v>
       </c>
       <c r="K21">
-        <v>1.034607958492219</v>
+        <v>1.022914078645016</v>
       </c>
       <c r="L21">
-        <v>1.029899916134033</v>
+        <v>1.011160917638348</v>
       </c>
       <c r="M21">
-        <v>1.039051775654698</v>
+        <v>1.003724097098693</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025279312637349</v>
+        <v>0.9829787750008236</v>
       </c>
       <c r="D22">
-        <v>1.030551990919885</v>
+        <v>1.005670045159677</v>
       </c>
       <c r="E22">
-        <v>1.025765100760674</v>
+        <v>0.9934885810369948</v>
       </c>
       <c r="F22">
-        <v>1.034668226505263</v>
+        <v>0.9844293575170018</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035836203507542</v>
+        <v>1.038226850229223</v>
       </c>
       <c r="J22">
-        <v>1.032190281056923</v>
+        <v>1.014484661989966</v>
       </c>
       <c r="K22">
-        <v>1.034282288732934</v>
+        <v>1.02113000801412</v>
       </c>
       <c r="L22">
-        <v>1.029514213829634</v>
+        <v>1.009190143507755</v>
       </c>
       <c r="M22">
-        <v>1.03838249971959</v>
+        <v>1.000315713853748</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025605191855622</v>
+        <v>0.9847657430887784</v>
       </c>
       <c r="D23">
-        <v>1.030794309571312</v>
+        <v>1.006954823989432</v>
       </c>
       <c r="E23">
-        <v>1.026039699927797</v>
+        <v>0.9948808628444968</v>
       </c>
       <c r="F23">
-        <v>1.035093013079233</v>
+        <v>0.9866082429470512</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035931851438255</v>
+        <v>1.038890275800978</v>
       </c>
       <c r="J23">
-        <v>1.032382864721181</v>
+        <v>1.015512990866809</v>
       </c>
       <c r="K23">
-        <v>1.034454974750133</v>
+        <v>1.022080102983976</v>
       </c>
       <c r="L23">
-        <v>1.029718675888796</v>
+        <v>1.010239236998857</v>
       </c>
       <c r="M23">
-        <v>1.038737283775146</v>
+        <v>1.002130659159433</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026889022437627</v>
+        <v>0.9916386201656986</v>
       </c>
       <c r="D24">
-        <v>1.031748916291379</v>
+        <v>1.011905444949257</v>
       </c>
       <c r="E24">
-        <v>1.027122415462465</v>
+        <v>1.000252471177662</v>
       </c>
       <c r="F24">
-        <v>1.036766907516878</v>
+        <v>0.994985261249974</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036305848773918</v>
+        <v>1.041420776315252</v>
       </c>
       <c r="J24">
-        <v>1.033140483387516</v>
+        <v>1.019462377598298</v>
       </c>
       <c r="K24">
-        <v>1.035133879923169</v>
+        <v>1.025726664327875</v>
       </c>
       <c r="L24">
-        <v>1.030523751875208</v>
+        <v>1.014275154589388</v>
       </c>
       <c r="M24">
-        <v>1.040134294878429</v>
+        <v>1.009101017378958</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028380607751556</v>
+        <v>0.9993028963856924</v>
       </c>
       <c r="D25">
-        <v>1.032857919259744</v>
+        <v>1.017442648646587</v>
       </c>
       <c r="E25">
-        <v>1.028382199703994</v>
+        <v>1.006274688600246</v>
       </c>
       <c r="F25">
-        <v>1.038712568059988</v>
+        <v>1.004323561596606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036734529668756</v>
+        <v>1.044198203374912</v>
       </c>
       <c r="J25">
-        <v>1.034018453912146</v>
+        <v>1.023853743644404</v>
       </c>
       <c r="K25">
-        <v>1.035919723463689</v>
+        <v>1.029776092488156</v>
       </c>
       <c r="L25">
-        <v>1.03145822496993</v>
+        <v>1.018776372802582</v>
       </c>
       <c r="M25">
-        <v>1.041755972015163</v>
+        <v>1.016855128569966</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
